--- a/US/data/BOC/FTD/FTDE/AGDSEXCSB_M_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/AGDSEXCSB_M_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IX137"/>
+  <dimension ref="A1:IZ137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1644,15 +1644,25 @@
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -2424,19 +2434,25 @@
         <v>14117</v>
       </c>
       <c r="IU2" t="n">
-        <v>14769</v>
-      </c>
-      <c r="IV2" t="inlineStr">
+        <v>14748</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>15328</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>17513</v>
+      </c>
+      <c r="IX2" t="inlineStr">
         <is>
           <t>AFFBEXCSB</t>
         </is>
       </c>
-      <c r="IW2" t="inlineStr">
+      <c r="IY2" t="inlineStr">
         <is>
           <t>Foods, Feeds and Beverages,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX2" t="n">
+      <c r="IZ2" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3208,17 +3224,23 @@
       <c r="IU3" t="n">
         <v>226</v>
       </c>
-      <c r="IV3" t="inlineStr">
+      <c r="IV3" t="n">
+        <v>217</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>217</v>
+      </c>
+      <c r="IX3" t="inlineStr">
         <is>
           <t>AACBEXCSB</t>
         </is>
       </c>
-      <c r="IW3" t="inlineStr">
+      <c r="IY3" t="inlineStr">
         <is>
           <t>Alcoholic beverages, excluding wine,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX3" t="n">
+      <c r="IZ3" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3990,17 +4012,23 @@
       <c r="IU4" t="n">
         <v>924</v>
       </c>
-      <c r="IV4" t="inlineStr">
+      <c r="IV4" t="n">
+        <v>974</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1091</v>
+      </c>
+      <c r="IX4" t="inlineStr">
         <is>
           <t>AANFEXCSB</t>
         </is>
       </c>
-      <c r="IW4" t="inlineStr">
+      <c r="IY4" t="inlineStr">
         <is>
           <t>Animal feeds, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX4" t="n">
+      <c r="IZ4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4772,17 +4800,23 @@
       <c r="IU5" t="n">
         <v>544</v>
       </c>
-      <c r="IV5" t="inlineStr">
+      <c r="IV5" t="n">
+        <v>590</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>597</v>
+      </c>
+      <c r="IX5" t="inlineStr">
         <is>
           <t>ABAKEXCSB</t>
         </is>
       </c>
-      <c r="IW5" t="inlineStr">
+      <c r="IY5" t="inlineStr">
         <is>
           <t>Bakery products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX5" t="n">
+      <c r="IZ5" t="n">
         <v>16</v>
       </c>
     </row>
@@ -5552,19 +5586,25 @@
         <v>1736</v>
       </c>
       <c r="IU6" t="n">
-        <v>2033</v>
-      </c>
-      <c r="IV6" t="inlineStr">
+        <v>2040</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>1860</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>1876</v>
+      </c>
+      <c r="IX6" t="inlineStr">
         <is>
           <t>ACOREXCSB</t>
         </is>
       </c>
-      <c r="IW6" t="inlineStr">
+      <c r="IY6" t="inlineStr">
         <is>
           <t>Corn,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX6" t="n">
+      <c r="IZ6" t="n">
         <v>19</v>
       </c>
     </row>
@@ -6334,19 +6374,25 @@
         <v>538</v>
       </c>
       <c r="IU7" t="n">
-        <v>601</v>
-      </c>
-      <c r="IV7" t="inlineStr">
+        <v>600</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>664</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>666</v>
+      </c>
+      <c r="IX7" t="inlineStr">
         <is>
           <t>ADPEEXCSB</t>
         </is>
       </c>
-      <c r="IW7" t="inlineStr">
+      <c r="IY7" t="inlineStr">
         <is>
           <t>Dairy products and eggs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX7" t="n">
+      <c r="IZ7" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7118,17 +7164,23 @@
       <c r="IU8" t="n">
         <v>425</v>
       </c>
-      <c r="IV8" t="inlineStr">
+      <c r="IV8" t="n">
+        <v>430</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>386</v>
+      </c>
+      <c r="IX8" t="inlineStr">
         <is>
           <t>AFSFEXCSB</t>
         </is>
       </c>
-      <c r="IW8" t="inlineStr">
+      <c r="IY8" t="inlineStr">
         <is>
           <t>Fish and shellfish,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX8" t="n">
+      <c r="IZ8" t="n">
         <v>22</v>
       </c>
     </row>
@@ -7900,17 +7952,23 @@
       <c r="IU9" t="n">
         <v>785</v>
       </c>
-      <c r="IV9" t="inlineStr">
+      <c r="IV9" t="n">
+        <v>726</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>738</v>
+      </c>
+      <c r="IX9" t="inlineStr">
         <is>
           <t>AFFJEXCSB</t>
         </is>
       </c>
-      <c r="IW9" t="inlineStr">
+      <c r="IY9" t="inlineStr">
         <is>
           <t>Fruits and frozen juices,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX9" t="n">
+      <c r="IZ9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -8682,17 +8740,23 @@
       <c r="IU10" t="n">
         <v>2155</v>
       </c>
-      <c r="IV10" t="inlineStr">
+      <c r="IV10" t="n">
+        <v>2145</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>2249</v>
+      </c>
+      <c r="IX10" t="inlineStr">
         <is>
           <t>AMPOEXCSB</t>
         </is>
       </c>
-      <c r="IW10" t="inlineStr">
+      <c r="IY10" t="inlineStr">
         <is>
           <t>Meat, poultry, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX10" t="n">
+      <c r="IZ10" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9464,17 +9528,23 @@
       <c r="IU11" t="n">
         <v>35</v>
       </c>
-      <c r="IV11" t="inlineStr">
+      <c r="IV11" t="n">
+        <v>37</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>37</v>
+      </c>
+      <c r="IX11" t="inlineStr">
         <is>
           <t>ANAFEXCSB</t>
         </is>
       </c>
-      <c r="IW11" t="inlineStr">
+      <c r="IY11" t="inlineStr">
         <is>
           <t>Nonagricultural foods, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX11" t="n">
+      <c r="IZ11" t="n">
         <v>26</v>
       </c>
     </row>
@@ -10244,19 +10314,25 @@
         <v>684</v>
       </c>
       <c r="IU12" t="n">
-        <v>811</v>
-      </c>
-      <c r="IV12" t="inlineStr">
+        <v>812</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>900</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>974</v>
+      </c>
+      <c r="IX12" t="inlineStr">
         <is>
           <t>ANUTEXCSB</t>
         </is>
       </c>
-      <c r="IW12" t="inlineStr">
+      <c r="IY12" t="inlineStr">
         <is>
           <t>Nuts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX12" t="n">
+      <c r="IZ12" t="n">
         <v>27</v>
       </c>
     </row>
@@ -11028,17 +11104,23 @@
       <c r="IU13" t="n">
         <v>369</v>
       </c>
-      <c r="IV13" t="inlineStr">
+      <c r="IV13" t="n">
+        <v>353</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>275</v>
+      </c>
+      <c r="IX13" t="inlineStr">
         <is>
           <t>AOFOEXCSB</t>
         </is>
       </c>
-      <c r="IW13" t="inlineStr">
+      <c r="IY13" t="inlineStr">
         <is>
           <t>Food oils and oilseeds,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX13" t="n">
+      <c r="IZ13" t="n">
         <v>28</v>
       </c>
     </row>
@@ -11808,19 +11890,25 @@
         <v>1417</v>
       </c>
       <c r="IU14" t="n">
-        <v>1465</v>
-      </c>
-      <c r="IV14" t="inlineStr">
+        <v>1467</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>1468</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>1473</v>
+      </c>
+      <c r="IX14" t="inlineStr">
         <is>
           <t>AOTFEXCSB</t>
         </is>
       </c>
-      <c r="IW14" t="inlineStr">
+      <c r="IY14" t="inlineStr">
         <is>
           <t>Other foods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX14" t="n">
+      <c r="IZ14" t="n">
         <v>29</v>
       </c>
     </row>
@@ -12592,17 +12680,23 @@
       <c r="IU15" t="n">
         <v>180</v>
       </c>
-      <c r="IV15" t="inlineStr">
+      <c r="IV15" t="n">
+        <v>132</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>145</v>
+      </c>
+      <c r="IX15" t="inlineStr">
         <is>
           <t>ARICEXCSB</t>
         </is>
       </c>
-      <c r="IW15" t="inlineStr">
+      <c r="IY15" t="inlineStr">
         <is>
           <t>Rice,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX15" t="n">
+      <c r="IZ15" t="n">
         <v>30</v>
       </c>
     </row>
@@ -13374,17 +13468,23 @@
       <c r="IU16" t="n">
         <v>308</v>
       </c>
-      <c r="IV16" t="inlineStr">
+      <c r="IV16" t="n">
+        <v>367</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>225</v>
+      </c>
+      <c r="IX16" t="inlineStr">
         <is>
           <t>ASBOEXCSB</t>
         </is>
       </c>
-      <c r="IW16" t="inlineStr">
+      <c r="IY16" t="inlineStr">
         <is>
           <t>Sorghum, barley, oats,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX16" t="n">
+      <c r="IZ16" t="n">
         <v>31</v>
       </c>
     </row>
@@ -14154,19 +14254,25 @@
         <v>2465</v>
       </c>
       <c r="IU17" t="n">
-        <v>2419</v>
-      </c>
-      <c r="IV17" t="inlineStr">
+        <v>2388</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>2968</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>5079</v>
+      </c>
+      <c r="IX17" t="inlineStr">
         <is>
           <t>ASOYEXCSB</t>
         </is>
       </c>
-      <c r="IW17" t="inlineStr">
+      <c r="IY17" t="inlineStr">
         <is>
           <t>Soybeans,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX17" t="n">
+      <c r="IZ17" t="n">
         <v>32</v>
       </c>
     </row>
@@ -14938,17 +15044,23 @@
       <c r="IU18" t="n">
         <v>582</v>
       </c>
-      <c r="IV18" t="inlineStr">
+      <c r="IV18" t="n">
+        <v>607</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>629</v>
+      </c>
+      <c r="IX18" t="inlineStr">
         <is>
           <t>AVEGEXCSB</t>
         </is>
       </c>
-      <c r="IW18" t="inlineStr">
+      <c r="IY18" t="inlineStr">
         <is>
           <t>Vegetables,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX18" t="n">
+      <c r="IZ18" t="n">
         <v>34</v>
       </c>
     </row>
@@ -15720,17 +15832,23 @@
       <c r="IU19" t="n">
         <v>725</v>
       </c>
-      <c r="IV19" t="inlineStr">
+      <c r="IV19" t="n">
+        <v>644</v>
+      </c>
+      <c r="IW19" t="n">
+        <v>655</v>
+      </c>
+      <c r="IX19" t="inlineStr">
         <is>
           <t>AWHTEXCSB</t>
         </is>
       </c>
-      <c r="IW19" t="inlineStr">
+      <c r="IY19" t="inlineStr">
         <is>
           <t>Wheat,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX19" t="n">
+      <c r="IZ19" t="n">
         <v>35</v>
       </c>
     </row>
@@ -16502,17 +16620,23 @@
       <c r="IU20" t="n">
         <v>181</v>
       </c>
-      <c r="IV20" t="inlineStr">
+      <c r="IV20" t="n">
+        <v>249</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>201</v>
+      </c>
+      <c r="IX20" t="inlineStr">
         <is>
           <t>AWBPEXCSB</t>
         </is>
       </c>
-      <c r="IW20" t="inlineStr">
+      <c r="IY20" t="inlineStr">
         <is>
           <t>Wine, beer, and related products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX20" t="n">
+      <c r="IZ20" t="n">
         <v>36</v>
       </c>
     </row>
@@ -17282,19 +17406,25 @@
         <v>58141</v>
       </c>
       <c r="IU21" t="n">
-        <v>59864</v>
-      </c>
-      <c r="IV21" t="inlineStr">
+        <v>59876</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>67283</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>69585</v>
+      </c>
+      <c r="IX21" t="inlineStr">
         <is>
           <t>AIDSEXCSB</t>
         </is>
       </c>
-      <c r="IW21" t="inlineStr">
+      <c r="IY21" t="inlineStr">
         <is>
           <t>Industrial Supplies and Materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX21" t="n">
+      <c r="IZ21" t="n">
         <v>37</v>
       </c>
     </row>
@@ -18066,17 +18196,23 @@
       <c r="IU22" t="n">
         <v>333</v>
       </c>
-      <c r="IV22" t="inlineStr">
+      <c r="IV22" t="n">
+        <v>325</v>
+      </c>
+      <c r="IW22" t="n">
+        <v>321</v>
+      </c>
+      <c r="IX22" t="inlineStr">
         <is>
           <t>AAFUEXCSB</t>
         </is>
       </c>
-      <c r="IW22" t="inlineStr">
+      <c r="IY22" t="inlineStr">
         <is>
           <t>Agricultural farming-unmanufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX22" t="n">
+      <c r="IZ22" t="n">
         <v>38</v>
       </c>
     </row>
@@ -18848,17 +18984,23 @@
       <c r="IU23" t="n">
         <v>476</v>
       </c>
-      <c r="IV23" t="inlineStr">
+      <c r="IV23" t="n">
+        <v>515</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>465</v>
+      </c>
+      <c r="IX23" t="inlineStr">
         <is>
           <t>AAIUEXCSB</t>
         </is>
       </c>
-      <c r="IW23" t="inlineStr">
+      <c r="IY23" t="inlineStr">
         <is>
           <t>Agricultural industry-unmanufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX23" t="n">
+      <c r="IZ23" t="n">
         <v>39</v>
       </c>
     </row>
@@ -19630,17 +19772,23 @@
       <c r="IU24" t="n">
         <v>330</v>
       </c>
-      <c r="IV24" t="inlineStr">
+      <c r="IV24" t="n">
+        <v>370</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>346</v>
+      </c>
+      <c r="IX24" t="inlineStr">
         <is>
           <t>AOAMEXCSB</t>
         </is>
       </c>
-      <c r="IW24" t="inlineStr">
+      <c r="IY24" t="inlineStr">
         <is>
           <t>Agriculture-manufactured, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX24" t="n">
+      <c r="IZ24" t="n">
         <v>40</v>
       </c>
     </row>
@@ -20410,19 +20558,25 @@
         <v>719</v>
       </c>
       <c r="IU25" t="n">
-        <v>778</v>
-      </c>
-      <c r="IV25" t="inlineStr">
+        <v>779</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>871</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>915</v>
+      </c>
+      <c r="IX25" t="inlineStr">
         <is>
           <t>AALUEXCSB</t>
         </is>
       </c>
-      <c r="IW25" t="inlineStr">
+      <c r="IY25" t="inlineStr">
         <is>
           <t>Aluminum and alumina,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX25" t="n">
+      <c r="IZ25" t="n">
         <v>41</v>
       </c>
     </row>
@@ -21194,17 +21348,23 @@
       <c r="IU26" t="n">
         <v>8</v>
       </c>
-      <c r="IV26" t="inlineStr">
+      <c r="IV26" t="n">
+        <v>10</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX26" t="inlineStr">
         <is>
           <t>ATAVEXCSB</t>
         </is>
       </c>
-      <c r="IW26" t="inlineStr">
+      <c r="IY26" t="inlineStr">
         <is>
           <t>Tapes, audio and visual,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX26" t="n">
+      <c r="IZ26" t="n">
         <v>43</v>
       </c>
     </row>
@@ -21976,17 +22136,23 @@
       <c r="IU27" t="n">
         <v>936</v>
       </c>
-      <c r="IV27" t="inlineStr">
+      <c r="IV27" t="n">
+        <v>1140</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>1162</v>
+      </c>
+      <c r="IX27" t="inlineStr">
         <is>
           <t>ACMFEXCSB</t>
         </is>
       </c>
-      <c r="IW27" t="inlineStr">
+      <c r="IY27" t="inlineStr">
         <is>
           <t>Chemicals-fertilizers,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX27" t="n">
+      <c r="IZ27" t="n">
         <v>44</v>
       </c>
     </row>
@@ -22756,19 +22922,25 @@
         <v>976</v>
       </c>
       <c r="IU28" t="n">
-        <v>944</v>
-      </c>
-      <c r="IV28" t="inlineStr">
+        <v>943</v>
+      </c>
+      <c r="IV28" t="n">
+        <v>1018</v>
+      </c>
+      <c r="IW28" t="n">
+        <v>1097</v>
+      </c>
+      <c r="IX28" t="inlineStr">
         <is>
           <t>ACMIEXCSB</t>
         </is>
       </c>
-      <c r="IW28" t="inlineStr">
+      <c r="IY28" t="inlineStr">
         <is>
           <t>Chemicals-inorganic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX28" t="n">
+      <c r="IZ28" t="n">
         <v>45</v>
       </c>
     </row>
@@ -23538,19 +23710,25 @@
         <v>3513</v>
       </c>
       <c r="IU29" t="n">
-        <v>3414</v>
-      </c>
-      <c r="IV29" t="inlineStr">
+        <v>3418</v>
+      </c>
+      <c r="IV29" t="n">
+        <v>3489</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>3362</v>
+      </c>
+      <c r="IX29" t="inlineStr">
         <is>
           <t>ACMOEXCSB</t>
         </is>
       </c>
-      <c r="IW29" t="inlineStr">
+      <c r="IY29" t="inlineStr">
         <is>
           <t>Chemicals-organic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX29" t="n">
+      <c r="IZ29" t="n">
         <v>46</v>
       </c>
     </row>
@@ -24320,19 +24498,25 @@
         <v>3471</v>
       </c>
       <c r="IU30" t="n">
-        <v>3512</v>
-      </c>
-      <c r="IV30" t="inlineStr">
+        <v>3516</v>
+      </c>
+      <c r="IV30" t="n">
+        <v>3416</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>3382</v>
+      </c>
+      <c r="IX30" t="inlineStr">
         <is>
           <t>AOCMEXCSB</t>
         </is>
       </c>
-      <c r="IW30" t="inlineStr">
+      <c r="IY30" t="inlineStr">
         <is>
           <t>Chemicals-other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX30" t="n">
+      <c r="IZ30" t="n">
         <v>47</v>
       </c>
     </row>
@@ -25102,19 +25286,25 @@
         <v>759</v>
       </c>
       <c r="IU31" t="n">
-        <v>680</v>
-      </c>
-      <c r="IV31" t="inlineStr">
+        <v>693</v>
+      </c>
+      <c r="IV31" t="n">
+        <v>772</v>
+      </c>
+      <c r="IW31" t="n">
+        <v>1132</v>
+      </c>
+      <c r="IX31" t="inlineStr">
         <is>
           <t>AOCFEXCSB</t>
         </is>
       </c>
-      <c r="IW31" t="inlineStr">
+      <c r="IY31" t="inlineStr">
         <is>
           <t>Coal and related fuels,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX31" t="n">
+      <c r="IZ31" t="n">
         <v>48</v>
       </c>
     </row>
@@ -25886,17 +26076,23 @@
       <c r="IU32" t="n">
         <v>867</v>
       </c>
-      <c r="IV32" t="inlineStr">
+      <c r="IV32" t="n">
+        <v>823</v>
+      </c>
+      <c r="IW32" t="n">
+        <v>846</v>
+      </c>
+      <c r="IX32" t="inlineStr">
         <is>
           <t>ACOPEXCSB</t>
         </is>
       </c>
-      <c r="IW32" t="inlineStr">
+      <c r="IY32" t="inlineStr">
         <is>
           <t>Copper,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX32" t="n">
+      <c r="IZ32" t="n">
         <v>49</v>
       </c>
     </row>
@@ -26668,17 +26864,23 @@
       <c r="IU33" t="n">
         <v>174</v>
       </c>
-      <c r="IV33" t="inlineStr">
+      <c r="IV33" t="n">
+        <v>174</v>
+      </c>
+      <c r="IW33" t="n">
+        <v>172</v>
+      </c>
+      <c r="IX33" t="inlineStr">
         <is>
           <t>ACFCEXCSB</t>
         </is>
       </c>
-      <c r="IW33" t="inlineStr">
+      <c r="IY33" t="inlineStr">
         <is>
           <t>Cotton fiber cloth,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX33" t="n">
+      <c r="IZ33" t="n">
         <v>50</v>
       </c>
     </row>
@@ -27450,17 +27652,23 @@
       <c r="IU34" t="n">
         <v>656</v>
       </c>
-      <c r="IV34" t="inlineStr">
+      <c r="IV34" t="n">
+        <v>729</v>
+      </c>
+      <c r="IW34" t="n">
+        <v>817</v>
+      </c>
+      <c r="IX34" t="inlineStr">
         <is>
           <t>ACTREXCSB</t>
         </is>
       </c>
-      <c r="IW34" t="inlineStr">
+      <c r="IY34" t="inlineStr">
         <is>
           <t>Cotton, raw,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX34" t="n">
+      <c r="IZ34" t="n">
         <v>51</v>
       </c>
     </row>
@@ -28230,19 +28438,25 @@
         <v>7551</v>
       </c>
       <c r="IU35" t="n">
-        <v>7428</v>
-      </c>
-      <c r="IV35" t="inlineStr">
+        <v>7368</v>
+      </c>
+      <c r="IV35" t="n">
+        <v>9102</v>
+      </c>
+      <c r="IW35" t="n">
+        <v>9298</v>
+      </c>
+      <c r="IX35" t="inlineStr">
         <is>
           <t>ACDOEXCSB</t>
         </is>
       </c>
-      <c r="IW35" t="inlineStr">
+      <c r="IY35" t="inlineStr">
         <is>
           <t>Crude oil,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX35" t="n">
+      <c r="IZ35" t="n">
         <v>53</v>
       </c>
     </row>
@@ -29016,17 +29230,23 @@
       <c r="IU36" t="n">
         <v>28</v>
       </c>
-      <c r="IV36" t="inlineStr">
+      <c r="IV36" t="n">
+        <v>55</v>
+      </c>
+      <c r="IW36" t="n">
+        <v>35</v>
+      </c>
+      <c r="IX36" t="inlineStr">
         <is>
           <t>AEENEXCSB</t>
         </is>
       </c>
-      <c r="IW36" t="inlineStr">
+      <c r="IY36" t="inlineStr">
         <is>
           <t>Electric energy,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX36" t="n">
+      <c r="IZ36" t="n">
         <v>54</v>
       </c>
     </row>
@@ -29798,17 +30018,23 @@
       <c r="IU37" t="n">
         <v>2114</v>
       </c>
-      <c r="IV37" t="inlineStr">
+      <c r="IV37" t="n">
+        <v>2030</v>
+      </c>
+      <c r="IW37" t="n">
+        <v>2054</v>
+      </c>
+      <c r="IX37" t="inlineStr">
         <is>
           <t>AFMSEXCSB</t>
         </is>
       </c>
-      <c r="IW37" t="inlineStr">
+      <c r="IY37" t="inlineStr">
         <is>
           <t>Finished metal shapes,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX37" t="n">
+      <c r="IZ37" t="n">
         <v>56</v>
       </c>
     </row>
@@ -30580,17 +30806,23 @@
       <c r="IU38" t="n">
         <v>246</v>
       </c>
-      <c r="IV38" t="inlineStr">
+      <c r="IV38" t="n">
+        <v>263</v>
+      </c>
+      <c r="IW38" t="n">
+        <v>275</v>
+      </c>
+      <c r="IX38" t="inlineStr">
         <is>
           <t>AFTSEXCSB</t>
         </is>
       </c>
-      <c r="IW38" t="inlineStr">
+      <c r="IY38" t="inlineStr">
         <is>
           <t>Finished textile supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX38" t="n">
+      <c r="IZ38" t="n">
         <v>57</v>
       </c>
     </row>
@@ -31360,19 +31592,25 @@
         <v>2920</v>
       </c>
       <c r="IU39" t="n">
-        <v>3684</v>
-      </c>
-      <c r="IV39" t="inlineStr">
+        <v>3642</v>
+      </c>
+      <c r="IV39" t="n">
+        <v>5348</v>
+      </c>
+      <c r="IW39" t="n">
+        <v>5699</v>
+      </c>
+      <c r="IX39" t="inlineStr">
         <is>
           <t>AFULEXCSB</t>
         </is>
       </c>
-      <c r="IW39" t="inlineStr">
+      <c r="IY39" t="inlineStr">
         <is>
           <t>Fuel oil,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX39" t="n">
+      <c r="IZ39" t="n">
         <v>58</v>
       </c>
     </row>
@@ -32142,19 +32380,25 @@
         <v>3392</v>
       </c>
       <c r="IU40" t="n">
-        <v>3729</v>
-      </c>
-      <c r="IV40" t="inlineStr">
+        <v>3731</v>
+      </c>
+      <c r="IV40" t="n">
+        <v>4019</v>
+      </c>
+      <c r="IW40" t="n">
+        <v>4904</v>
+      </c>
+      <c r="IX40" t="inlineStr">
         <is>
           <t>ANGSEXCSB</t>
         </is>
       </c>
-      <c r="IW40" t="inlineStr">
+      <c r="IY40" t="inlineStr">
         <is>
           <t>Gas-natural,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX40" t="n">
+      <c r="IZ40" t="n">
         <v>59</v>
       </c>
     </row>
@@ -32926,17 +33170,23 @@
       <c r="IU41" t="n">
         <v>113</v>
       </c>
-      <c r="IV41" t="inlineStr">
+      <c r="IV41" t="n">
+        <v>127</v>
+      </c>
+      <c r="IW41" t="n">
+        <v>116</v>
+      </c>
+      <c r="IX41" t="inlineStr">
         <is>
           <t>AGPSEXCSB</t>
         </is>
       </c>
-      <c r="IW41" t="inlineStr">
+      <c r="IY41" t="inlineStr">
         <is>
           <t>Glass-plate, sheet, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX41" t="n">
+      <c r="IZ41" t="n">
         <v>60</v>
       </c>
     </row>
@@ -33708,17 +33958,23 @@
       <c r="IU42" t="n">
         <v>58</v>
       </c>
-      <c r="IV42" t="inlineStr">
+      <c r="IV42" t="n">
+        <v>58</v>
+      </c>
+      <c r="IW42" t="n">
+        <v>58</v>
+      </c>
+      <c r="IX42" t="inlineStr">
         <is>
           <t>AHWMEXCSB</t>
         </is>
       </c>
-      <c r="IW42" t="inlineStr">
+      <c r="IY42" t="inlineStr">
         <is>
           <t>Hair and waste materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX42" t="n">
+      <c r="IZ42" t="n">
         <v>61</v>
       </c>
     </row>
@@ -34490,17 +34746,23 @@
       <c r="IU43" t="n">
         <v>97</v>
       </c>
-      <c r="IV43" t="inlineStr">
+      <c r="IV43" t="n">
+        <v>91</v>
+      </c>
+      <c r="IW43" t="n">
+        <v>80</v>
+      </c>
+      <c r="IX43" t="inlineStr">
         <is>
           <t>AHSKEXCSB</t>
         </is>
       </c>
-      <c r="IW43" t="inlineStr">
+      <c r="IY43" t="inlineStr">
         <is>
           <t>Hides and skins,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX43" t="n">
+      <c r="IZ43" t="n">
         <v>62</v>
       </c>
     </row>
@@ -35272,17 +35534,23 @@
       <c r="IU44" t="n">
         <v>422</v>
       </c>
-      <c r="IV44" t="inlineStr">
+      <c r="IV44" t="n">
+        <v>432</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>433</v>
+      </c>
+      <c r="IX44" t="inlineStr">
         <is>
           <t>AIRPEXCSB</t>
         </is>
       </c>
-      <c r="IW44" t="inlineStr">
+      <c r="IY44" t="inlineStr">
         <is>
           <t>Industrial rubber products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX44" t="n">
+      <c r="IZ44" t="n">
         <v>63</v>
       </c>
     </row>
@@ -36052,19 +36320,25 @@
         <v>2636</v>
       </c>
       <c r="IU45" t="n">
-        <v>2644</v>
-      </c>
-      <c r="IV45" t="inlineStr">
+        <v>2645</v>
+      </c>
+      <c r="IV45" t="n">
+        <v>2718</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>2712</v>
+      </c>
+      <c r="IX45" t="inlineStr">
         <is>
           <t>AOISEXCSB</t>
         </is>
       </c>
-      <c r="IW45" t="inlineStr">
+      <c r="IY45" t="inlineStr">
         <is>
           <t>Other industrial supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX45" t="n">
+      <c r="IZ45" t="n">
         <v>64</v>
       </c>
     </row>
@@ -36836,17 +37110,23 @@
       <c r="IU46" t="n">
         <v>984</v>
       </c>
-      <c r="IV46" t="inlineStr">
+      <c r="IV46" t="n">
+        <v>1049</v>
+      </c>
+      <c r="IW46" t="n">
+        <v>1059</v>
+      </c>
+      <c r="IX46" t="inlineStr">
         <is>
           <t>AISMEXCSB</t>
         </is>
       </c>
-      <c r="IW46" t="inlineStr">
+      <c r="IY46" t="inlineStr">
         <is>
           <t>Iron and steel mill products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX46" t="n">
+      <c r="IZ46" t="n">
         <v>66</v>
       </c>
     </row>
@@ -37618,17 +37898,23 @@
       <c r="IU47" t="n">
         <v>602</v>
       </c>
-      <c r="IV47" t="inlineStr">
+      <c r="IV47" t="n">
+        <v>614</v>
+      </c>
+      <c r="IW47" t="n">
+        <v>696</v>
+      </c>
+      <c r="IX47" t="inlineStr">
         <is>
           <t>AIRSEXCSB</t>
         </is>
       </c>
-      <c r="IW47" t="inlineStr">
+      <c r="IY47" t="inlineStr">
         <is>
           <t>Iron and steel products, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX47" t="n">
+      <c r="IZ47" t="n">
         <v>67</v>
       </c>
     </row>
@@ -38400,17 +38686,23 @@
       <c r="IU48" t="n">
         <v>60</v>
       </c>
-      <c r="IV48" t="inlineStr">
+      <c r="IV48" t="n">
+        <v>62</v>
+      </c>
+      <c r="IW48" t="n">
+        <v>61</v>
+      </c>
+      <c r="IX48" t="inlineStr">
         <is>
           <t>ALTFEXCSB</t>
         </is>
       </c>
-      <c r="IW48" t="inlineStr">
+      <c r="IY48" t="inlineStr">
         <is>
           <t>Leather and furs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX48" t="n">
+      <c r="IZ48" t="n">
         <v>68</v>
       </c>
     </row>
@@ -39182,17 +39474,23 @@
       <c r="IU49" t="n">
         <v>527</v>
       </c>
-      <c r="IV49" t="inlineStr">
+      <c r="IV49" t="n">
+        <v>552</v>
+      </c>
+      <c r="IW49" t="n">
+        <v>575</v>
+      </c>
+      <c r="IX49" t="inlineStr">
         <is>
           <t>ALLBEXCSB</t>
         </is>
       </c>
-      <c r="IW49" t="inlineStr">
+      <c r="IY49" t="inlineStr">
         <is>
           <t>Logs and lumber,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX49" t="n">
+      <c r="IZ49" t="n">
         <v>69</v>
       </c>
     </row>
@@ -39962,19 +40260,25 @@
         <v>544</v>
       </c>
       <c r="IU50" t="n">
-        <v>576</v>
-      </c>
-      <c r="IV50" t="inlineStr">
+        <v>574</v>
+      </c>
+      <c r="IV50" t="n">
+        <v>600</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>584</v>
+      </c>
+      <c r="IX50" t="inlineStr">
         <is>
           <t>AMMCEXCSB</t>
         </is>
       </c>
-      <c r="IW50" t="inlineStr">
+      <c r="IY50" t="inlineStr">
         <is>
           <t>Manmade cloth,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX50" t="n">
+      <c r="IZ50" t="n">
         <v>71</v>
       </c>
     </row>
@@ -40746,17 +41050,23 @@
       <c r="IU51" t="n">
         <v>1218</v>
       </c>
-      <c r="IV51" t="inlineStr">
+      <c r="IV51" t="n">
+        <v>1090</v>
+      </c>
+      <c r="IW51" t="n">
+        <v>1441</v>
+      </c>
+      <c r="IX51" t="inlineStr">
         <is>
           <t>AMGCEXCSB</t>
         </is>
       </c>
-      <c r="IW51" t="inlineStr">
+      <c r="IY51" t="inlineStr">
         <is>
           <t>Metallurgical grade coal,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX51" t="n">
+      <c r="IZ51" t="n">
         <v>73</v>
       </c>
     </row>
@@ -41528,17 +41838,23 @@
       <c r="IU52" t="n">
         <v>620</v>
       </c>
-      <c r="IV52" t="inlineStr">
+      <c r="IV52" t="n">
+        <v>638</v>
+      </c>
+      <c r="IW52" t="n">
+        <v>599</v>
+      </c>
+      <c r="IX52" t="inlineStr">
         <is>
           <t>AMSMEXCSB</t>
         </is>
       </c>
-      <c r="IW52" t="inlineStr">
+      <c r="IY52" t="inlineStr">
         <is>
           <t>Mineral supplies-manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX52" t="n">
+      <c r="IZ52" t="n">
         <v>74</v>
       </c>
     </row>
@@ -42308,19 +42624,25 @@
         <v>2859</v>
       </c>
       <c r="IU53" t="n">
-        <v>2810</v>
-      </c>
-      <c r="IV53" t="inlineStr">
+        <v>2794</v>
+      </c>
+      <c r="IV53" t="n">
+        <v>3872</v>
+      </c>
+      <c r="IW53" t="n">
+        <v>3503</v>
+      </c>
+      <c r="IX53" t="inlineStr">
         <is>
           <t>ANGLEXCSB</t>
         </is>
       </c>
-      <c r="IW53" t="inlineStr">
+      <c r="IY53" t="inlineStr">
         <is>
           <t>Liquified petroleum gases,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX53" t="n">
+      <c r="IZ53" t="n">
         <v>75</v>
       </c>
     </row>
@@ -43092,17 +43414,23 @@
       <c r="IU54" t="n">
         <v>1210</v>
       </c>
-      <c r="IV54" t="inlineStr">
+      <c r="IV54" t="n">
+        <v>1289</v>
+      </c>
+      <c r="IW54" t="n">
+        <v>1274</v>
+      </c>
+      <c r="IX54" t="inlineStr">
         <is>
           <t>ANWPEXCSB</t>
         </is>
       </c>
-      <c r="IW54" t="inlineStr">
+      <c r="IY54" t="inlineStr">
         <is>
           <t>Newsprint,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX54" t="n">
+      <c r="IZ54" t="n">
         <v>77</v>
       </c>
     </row>
@@ -43874,17 +44202,23 @@
       <c r="IU55" t="n">
         <v>687</v>
       </c>
-      <c r="IV55" t="inlineStr">
+      <c r="IV55" t="n">
+        <v>766</v>
+      </c>
+      <c r="IW55" t="n">
+        <v>779</v>
+      </c>
+      <c r="IX55" t="inlineStr">
         <is>
           <t>AONMEXCSB</t>
         </is>
       </c>
-      <c r="IW55" t="inlineStr">
+      <c r="IY55" t="inlineStr">
         <is>
           <t>Nonferrous metals, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX55" t="n">
+      <c r="IZ55" t="n">
         <v>79</v>
       </c>
     </row>
@@ -44656,17 +44990,23 @@
       <c r="IU56" t="n">
         <v>88</v>
       </c>
-      <c r="IV56" t="inlineStr">
+      <c r="IV56" t="n">
+        <v>75</v>
+      </c>
+      <c r="IW56" t="n">
+        <v>120</v>
+      </c>
+      <c r="IX56" t="inlineStr">
         <is>
           <t>ANMMEXCSB</t>
         </is>
       </c>
-      <c r="IW56" t="inlineStr">
+      <c r="IY56" t="inlineStr">
         <is>
           <t>Nonmetallic minerals,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX56" t="n">
+      <c r="IZ56" t="n">
         <v>80</v>
       </c>
     </row>
@@ -45436,19 +45776,25 @@
         <v>2271</v>
       </c>
       <c r="IU57" t="n">
-        <v>1616</v>
-      </c>
-      <c r="IV57" t="inlineStr">
+        <v>1722</v>
+      </c>
+      <c r="IV57" t="n">
+        <v>1672</v>
+      </c>
+      <c r="IW57" t="n">
+        <v>1647</v>
+      </c>
+      <c r="IX57" t="inlineStr">
         <is>
           <t>ANMGEXCSB</t>
         </is>
       </c>
-      <c r="IW57" t="inlineStr">
+      <c r="IY57" t="inlineStr">
         <is>
           <t>Nonmonetary gold,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX57" t="n">
+      <c r="IZ57" t="n">
         <v>81</v>
       </c>
     </row>
@@ -46220,17 +46566,23 @@
       <c r="IU58" t="n">
         <v>43</v>
       </c>
-      <c r="IV58" t="inlineStr">
+      <c r="IV58" t="n">
+        <v>48</v>
+      </c>
+      <c r="IW58" t="n">
+        <v>46</v>
+      </c>
+      <c r="IX58" t="inlineStr">
         <is>
           <t>ANFTEXCSB</t>
         </is>
       </c>
-      <c r="IW58" t="inlineStr">
+      <c r="IY58" t="inlineStr">
         <is>
           <t>Nontextile floor tiles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX58" t="n">
+      <c r="IZ58" t="n">
         <v>82</v>
       </c>
     </row>
@@ -47002,17 +47354,23 @@
       <c r="IU59" t="n">
         <v>39</v>
       </c>
-      <c r="IV59" t="inlineStr">
+      <c r="IV59" t="n">
+        <v>47</v>
+      </c>
+      <c r="IW59" t="n">
+        <v>66</v>
+      </c>
+      <c r="IX59" t="inlineStr">
         <is>
           <t>ANUFEXCSB</t>
         </is>
       </c>
-      <c r="IW59" t="inlineStr">
+      <c r="IY59" t="inlineStr">
         <is>
           <t>Nuclear fuel materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX59" t="n">
+      <c r="IZ59" t="n">
         <v>83</v>
       </c>
     </row>
@@ -47782,19 +48140,25 @@
         <v>6045</v>
       </c>
       <c r="IU60" t="n">
-        <v>6407</v>
-      </c>
-      <c r="IV60" t="inlineStr">
+        <v>6406</v>
+      </c>
+      <c r="IV60" t="n">
+        <v>8020</v>
+      </c>
+      <c r="IW60" t="n">
+        <v>8688</v>
+      </c>
+      <c r="IX60" t="inlineStr">
         <is>
           <t>AOPPEXCSB</t>
         </is>
       </c>
-      <c r="IW60" t="inlineStr">
+      <c r="IY60" t="inlineStr">
         <is>
           <t>Petroleum products, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX60" t="n">
+      <c r="IZ60" t="n">
         <v>85</v>
       </c>
     </row>
@@ -48566,17 +48930,23 @@
       <c r="IU61" t="n">
         <v>4087</v>
       </c>
-      <c r="IV61" t="inlineStr">
+      <c r="IV61" t="n">
+        <v>4226</v>
+      </c>
+      <c r="IW61" t="n">
+        <v>4286</v>
+      </c>
+      <c r="IX61" t="inlineStr">
         <is>
           <t>APLAEXCSB</t>
         </is>
       </c>
-      <c r="IW61" t="inlineStr">
+      <c r="IY61" t="inlineStr">
         <is>
           <t>Plastic materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX61" t="n">
+      <c r="IZ61" t="n">
         <v>86</v>
       </c>
     </row>
@@ -49348,17 +49718,23 @@
       <c r="IU62" t="n">
         <v>1852</v>
       </c>
-      <c r="IV62" t="inlineStr">
+      <c r="IV62" t="n">
+        <v>2230</v>
+      </c>
+      <c r="IW62" t="n">
+        <v>1529</v>
+      </c>
+      <c r="IX62" t="inlineStr">
         <is>
           <t>AOPMEXCSB</t>
         </is>
       </c>
-      <c r="IW62" t="inlineStr">
+      <c r="IY62" t="inlineStr">
         <is>
           <t>Other precious metals,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX62" t="n">
+      <c r="IZ62" t="n">
         <v>88</v>
       </c>
     </row>
@@ -50130,17 +50506,23 @@
       <c r="IU63" t="n">
         <v>887</v>
       </c>
-      <c r="IV63" t="inlineStr">
+      <c r="IV63" t="n">
+        <v>805</v>
+      </c>
+      <c r="IW63" t="n">
+        <v>857</v>
+      </c>
+      <c r="IX63" t="inlineStr">
         <is>
           <t>APWPEXCSB</t>
         </is>
       </c>
-      <c r="IW63" t="inlineStr">
+      <c r="IY63" t="inlineStr">
         <is>
           <t>Pulpwood and woodpulp,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX63" t="n">
+      <c r="IZ63" t="n">
         <v>89</v>
       </c>
     </row>
@@ -50912,17 +51294,23 @@
       <c r="IU64" t="n">
         <v>425</v>
       </c>
-      <c r="IV64" t="inlineStr">
+      <c r="IV64" t="n">
+        <v>459</v>
+      </c>
+      <c r="IW64" t="n">
+        <v>476</v>
+      </c>
+      <c r="IX64" t="inlineStr">
         <is>
           <t>ASMWEXCSB</t>
         </is>
       </c>
-      <c r="IW64" t="inlineStr">
+      <c r="IY64" t="inlineStr">
         <is>
           <t>Shingles, molding and wallboard,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX64" t="n">
+      <c r="IZ64" t="n">
         <v>90</v>
       </c>
     </row>
@@ -51692,19 +52080,25 @@
         <v>932</v>
       </c>
       <c r="IU65" t="n">
-        <v>989</v>
-      </c>
-      <c r="IV65" t="inlineStr">
+        <v>991</v>
+      </c>
+      <c r="IV65" t="n">
+        <v>803</v>
+      </c>
+      <c r="IW65" t="n">
+        <v>1060</v>
+      </c>
+      <c r="IX65" t="inlineStr">
         <is>
           <t>ASMMEXCSB</t>
         </is>
       </c>
-      <c r="IW65" t="inlineStr">
+      <c r="IY65" t="inlineStr">
         <is>
           <t>Steelmaking materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX65" t="n">
+      <c r="IZ65" t="n">
         <v>91</v>
       </c>
     </row>
@@ -52474,19 +52868,25 @@
         <v>305</v>
       </c>
       <c r="IU66" t="n">
+        <v>303</v>
+      </c>
+      <c r="IV66" t="n">
         <v>302</v>
       </c>
-      <c r="IV66" t="inlineStr">
+      <c r="IW66" t="n">
+        <v>331</v>
+      </c>
+      <c r="IX66" t="inlineStr">
         <is>
           <t>ASRPEXCSB</t>
         </is>
       </c>
-      <c r="IW66" t="inlineStr">
+      <c r="IY66" t="inlineStr">
         <is>
           <t>Synthetic rubber-primary,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX66" t="n">
+      <c r="IZ66" t="n">
         <v>95</v>
       </c>
     </row>
@@ -53258,17 +53658,23 @@
       <c r="IU67" t="n">
         <v>51</v>
       </c>
-      <c r="IV67" t="inlineStr">
+      <c r="IV67" t="n">
+        <v>49</v>
+      </c>
+      <c r="IW67" t="n">
+        <v>87</v>
+      </c>
+      <c r="IX67" t="inlineStr">
         <is>
           <t>ATBUEXCSB</t>
         </is>
       </c>
-      <c r="IW67" t="inlineStr">
+      <c r="IY67" t="inlineStr">
         <is>
           <t>Tobacco, waxes, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX67" t="n">
+      <c r="IZ67" t="n">
         <v>97</v>
       </c>
     </row>
@@ -54040,17 +54446,23 @@
       <c r="IU68" t="n">
         <v>113</v>
       </c>
-      <c r="IV68" t="inlineStr">
+      <c r="IV68" t="n">
+        <v>122</v>
+      </c>
+      <c r="IW68" t="n">
+        <v>122</v>
+      </c>
+      <c r="IX68" t="inlineStr">
         <is>
           <t>AWSMEXCSB</t>
         </is>
       </c>
-      <c r="IW68" t="inlineStr">
+      <c r="IY68" t="inlineStr">
         <is>
           <t>Wood supplies, manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX68" t="n">
+      <c r="IZ68" t="n">
         <v>98</v>
       </c>
     </row>
@@ -54820,19 +55232,25 @@
         <v>46105</v>
       </c>
       <c r="IU69" t="n">
-        <v>45407</v>
-      </c>
-      <c r="IV69" t="inlineStr">
+        <v>45427</v>
+      </c>
+      <c r="IV69" t="n">
+        <v>46243</v>
+      </c>
+      <c r="IW69" t="n">
+        <v>47481</v>
+      </c>
+      <c r="IX69" t="inlineStr">
         <is>
           <t>ACPGEXCSB</t>
         </is>
       </c>
-      <c r="IW69" t="inlineStr">
+      <c r="IY69" t="inlineStr">
         <is>
           <t>Capital Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX69" t="n">
+      <c r="IZ69" t="n">
         <v>101</v>
       </c>
     </row>
@@ -55602,19 +56020,25 @@
         <v>675</v>
       </c>
       <c r="IU70" t="n">
-        <v>707</v>
-      </c>
-      <c r="IV70" t="inlineStr">
+        <v>710</v>
+      </c>
+      <c r="IV70" t="n">
+        <v>678</v>
+      </c>
+      <c r="IW70" t="n">
+        <v>823</v>
+      </c>
+      <c r="IX70" t="inlineStr">
         <is>
           <t>AAMEEXCSB</t>
         </is>
       </c>
-      <c r="IW70" t="inlineStr">
+      <c r="IY70" t="inlineStr">
         <is>
           <t>Agricultural machinery and equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX70" t="n">
+      <c r="IZ70" t="n">
         <v>102</v>
       </c>
     </row>
@@ -56386,17 +56810,23 @@
       <c r="IU71" t="n">
         <v>169</v>
       </c>
-      <c r="IV71" t="inlineStr">
+      <c r="IV71" t="n">
+        <v>174</v>
+      </c>
+      <c r="IW71" t="n">
+        <v>161</v>
+      </c>
+      <c r="IX71" t="inlineStr">
         <is>
           <t>ABMEEXCSB</t>
         </is>
       </c>
-      <c r="IW71" t="inlineStr">
+      <c r="IY71" t="inlineStr">
         <is>
           <t>Business machines and equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX71" t="n">
+      <c r="IZ71" t="n">
         <v>103</v>
       </c>
     </row>
@@ -57168,17 +57598,23 @@
       <c r="IU72" t="n">
         <v>2100</v>
       </c>
-      <c r="IV72" t="inlineStr">
+      <c r="IV72" t="n">
+        <v>2046</v>
+      </c>
+      <c r="IW72" t="n">
+        <v>3320</v>
+      </c>
+      <c r="IX72" t="inlineStr">
         <is>
           <t>ACVAEXCSB</t>
         </is>
       </c>
-      <c r="IW72" t="inlineStr">
+      <c r="IY72" t="inlineStr">
         <is>
           <t>Civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX72" t="n">
+      <c r="IZ72" t="n">
         <v>104</v>
       </c>
     </row>
@@ -57950,17 +58386,23 @@
       <c r="IU73" t="n">
         <v>21</v>
       </c>
-      <c r="IV73" t="inlineStr">
+      <c r="IV73" t="n">
+        <v>55</v>
+      </c>
+      <c r="IW73" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX73" t="inlineStr">
         <is>
           <t>AOCVEXCSB</t>
         </is>
       </c>
-      <c r="IW73" t="inlineStr">
+      <c r="IY73" t="inlineStr">
         <is>
           <t>Commercial vessels, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX73" t="n">
+      <c r="IZ73" t="n">
         <v>105</v>
       </c>
     </row>
@@ -58732,17 +59174,23 @@
       <c r="IU74" t="n">
         <v>2509</v>
       </c>
-      <c r="IV74" t="inlineStr">
+      <c r="IV74" t="n">
+        <v>2465</v>
+      </c>
+      <c r="IW74" t="n">
+        <v>2702</v>
+      </c>
+      <c r="IX74" t="inlineStr">
         <is>
           <t>ACACEXCSB</t>
         </is>
       </c>
-      <c r="IW74" t="inlineStr">
+      <c r="IY74" t="inlineStr">
         <is>
           <t>Computer accessories,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX74" t="n">
+      <c r="IZ74" t="n">
         <v>106</v>
       </c>
     </row>
@@ -59512,19 +59960,25 @@
         <v>1544</v>
       </c>
       <c r="IU75" t="n">
-        <v>1598</v>
-      </c>
-      <c r="IV75" t="inlineStr">
+        <v>1599</v>
+      </c>
+      <c r="IV75" t="n">
+        <v>1471</v>
+      </c>
+      <c r="IW75" t="n">
+        <v>1509</v>
+      </c>
+      <c r="IX75" t="inlineStr">
         <is>
           <t>ACPTEXCSB</t>
         </is>
       </c>
-      <c r="IW75" t="inlineStr">
+      <c r="IY75" t="inlineStr">
         <is>
           <t>Computers,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX75" t="n">
+      <c r="IZ75" t="n">
         <v>107</v>
       </c>
     </row>
@@ -60296,17 +60750,23 @@
       <c r="IU76" t="n">
         <v>206</v>
       </c>
-      <c r="IV76" t="inlineStr">
+      <c r="IV76" t="n">
+        <v>231</v>
+      </c>
+      <c r="IW76" t="n">
+        <v>294</v>
+      </c>
+      <c r="IX76" t="inlineStr">
         <is>
           <t>ADRLEXCSB</t>
         </is>
       </c>
-      <c r="IW76" t="inlineStr">
+      <c r="IY76" t="inlineStr">
         <is>
           <t>Drilling and oilfield equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX76" t="n">
+      <c r="IZ76" t="n">
         <v>108</v>
       </c>
     </row>
@@ -61076,19 +61536,25 @@
         <v>3806</v>
       </c>
       <c r="IU77" t="n">
-        <v>3916</v>
-      </c>
-      <c r="IV77" t="inlineStr">
+        <v>3918</v>
+      </c>
+      <c r="IV77" t="n">
+        <v>4207</v>
+      </c>
+      <c r="IW77" t="n">
+        <v>3973</v>
+      </c>
+      <c r="IX77" t="inlineStr">
         <is>
           <t>AEAPEXCSB</t>
         </is>
       </c>
-      <c r="IW77" t="inlineStr">
+      <c r="IY77" t="inlineStr">
         <is>
           <t>Electric apparatus,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX77" t="n">
+      <c r="IZ77" t="n">
         <v>109</v>
       </c>
     </row>
@@ -61858,19 +62324,25 @@
         <v>3319</v>
       </c>
       <c r="IU78" t="n">
-        <v>3609</v>
-      </c>
-      <c r="IV78" t="inlineStr">
+        <v>3610</v>
+      </c>
+      <c r="IV78" t="n">
+        <v>3279</v>
+      </c>
+      <c r="IW78" t="n">
+        <v>3408</v>
+      </c>
+      <c r="IX78" t="inlineStr">
         <is>
           <t>AECAEXCSB</t>
         </is>
       </c>
-      <c r="IW78" t="inlineStr">
+      <c r="IY78" t="inlineStr">
         <is>
           <t>Engines-civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX78" t="n">
+      <c r="IZ78" t="n">
         <v>110</v>
       </c>
     </row>
@@ -62642,17 +63114,23 @@
       <c r="IU79" t="n">
         <v>887</v>
       </c>
-      <c r="IV79" t="inlineStr">
+      <c r="IV79" t="n">
+        <v>938</v>
+      </c>
+      <c r="IW79" t="n">
+        <v>907</v>
+      </c>
+      <c r="IX79" t="inlineStr">
         <is>
           <t>AEXCEXCSB</t>
         </is>
       </c>
-      <c r="IW79" t="inlineStr">
+      <c r="IY79" t="inlineStr">
         <is>
           <t>Excavating machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX79" t="n">
+      <c r="IZ79" t="n">
         <v>111</v>
       </c>
     </row>
@@ -63424,17 +63902,23 @@
       <c r="IU80" t="n">
         <v>326</v>
       </c>
-      <c r="IV80" t="inlineStr">
+      <c r="IV80" t="n">
+        <v>353</v>
+      </c>
+      <c r="IW80" t="n">
+        <v>355</v>
+      </c>
+      <c r="IX80" t="inlineStr">
         <is>
           <t>AFTMEXCSB</t>
         </is>
       </c>
-      <c r="IW80" t="inlineStr">
+      <c r="IY80" t="inlineStr">
         <is>
           <t>Food and tobacco machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX80" t="n">
+      <c r="IZ80" t="n">
         <v>112</v>
       </c>
     </row>
@@ -64204,19 +64688,25 @@
         <v>1137</v>
       </c>
       <c r="IU81" t="n">
-        <v>1043</v>
-      </c>
-      <c r="IV81" t="inlineStr">
+        <v>1052</v>
+      </c>
+      <c r="IV81" t="n">
+        <v>1151</v>
+      </c>
+      <c r="IW81" t="n">
+        <v>1108</v>
+      </c>
+      <c r="IX81" t="inlineStr">
         <is>
           <t>AGNAEXCSB</t>
         </is>
       </c>
-      <c r="IW81" t="inlineStr">
+      <c r="IY81" t="inlineStr">
         <is>
           <t>Generators and accessories,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX81" t="n">
+      <c r="IZ81" t="n">
         <v>113</v>
       </c>
     </row>
@@ -64988,17 +65478,23 @@
       <c r="IU82" t="n">
         <v>2077</v>
       </c>
-      <c r="IV82" t="inlineStr">
+      <c r="IV82" t="n">
+        <v>2183</v>
+      </c>
+      <c r="IW82" t="n">
+        <v>2096</v>
+      </c>
+      <c r="IX82" t="inlineStr">
         <is>
           <t>AIDEEXCSB</t>
         </is>
       </c>
-      <c r="IW82" t="inlineStr">
+      <c r="IY82" t="inlineStr">
         <is>
           <t>Industrial engines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX82" t="n">
+      <c r="IZ82" t="n">
         <v>114</v>
       </c>
     </row>
@@ -65768,19 +66264,25 @@
         <v>5761</v>
       </c>
       <c r="IU83" t="n">
-        <v>5999</v>
-      </c>
-      <c r="IV83" t="inlineStr">
+        <v>6003</v>
+      </c>
+      <c r="IV83" t="n">
+        <v>6028</v>
+      </c>
+      <c r="IW83" t="n">
+        <v>5998</v>
+      </c>
+      <c r="IX83" t="inlineStr">
         <is>
           <t>AOIMEXCSB</t>
         </is>
       </c>
-      <c r="IW83" t="inlineStr">
+      <c r="IY83" t="inlineStr">
         <is>
           <t>Industrial machines, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX83" t="n">
+      <c r="IZ83" t="n">
         <v>115</v>
       </c>
     </row>
@@ -66552,17 +67054,23 @@
       <c r="IU84" t="n">
         <v>1165</v>
       </c>
-      <c r="IV84" t="inlineStr">
+      <c r="IV84" t="n">
+        <v>1140</v>
+      </c>
+      <c r="IW84" t="n">
+        <v>1204</v>
+      </c>
+      <c r="IX84" t="inlineStr">
         <is>
           <t>ALABEXCSB</t>
         </is>
       </c>
-      <c r="IW84" t="inlineStr">
+      <c r="IY84" t="inlineStr">
         <is>
           <t>Laboratory testing instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX84" t="n">
+      <c r="IZ84" t="n">
         <v>116</v>
       </c>
     </row>
@@ -67334,17 +67842,23 @@
       <c r="IU85" t="n">
         <v>88</v>
       </c>
-      <c r="IV85" t="inlineStr">
+      <c r="IV85" t="n">
+        <v>97</v>
+      </c>
+      <c r="IW85" t="n">
+        <v>97</v>
+      </c>
+      <c r="IX85" t="inlineStr">
         <is>
           <t>AMEPEXCSB</t>
         </is>
       </c>
-      <c r="IW85" t="inlineStr">
+      <c r="IY85" t="inlineStr">
         <is>
           <t>Marine engines and parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX85" t="n">
+      <c r="IZ85" t="n">
         <v>117</v>
       </c>
     </row>
@@ -68116,17 +68630,23 @@
       <c r="IU86" t="n">
         <v>958</v>
       </c>
-      <c r="IV86" t="inlineStr">
+      <c r="IV86" t="n">
+        <v>1197</v>
+      </c>
+      <c r="IW86" t="n">
+        <v>1185</v>
+      </c>
+      <c r="IX86" t="inlineStr">
         <is>
           <t>AMHEEXCSB</t>
         </is>
       </c>
-      <c r="IW86" t="inlineStr">
+      <c r="IY86" t="inlineStr">
         <is>
           <t>Materials handling equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX86" t="n">
+      <c r="IZ86" t="n">
         <v>118</v>
       </c>
     </row>
@@ -68898,17 +69418,23 @@
       <c r="IU87" t="n">
         <v>2152</v>
       </c>
-      <c r="IV87" t="inlineStr">
+      <c r="IV87" t="n">
+        <v>2276</v>
+      </c>
+      <c r="IW87" t="n">
+        <v>2238</v>
+      </c>
+      <c r="IX87" t="inlineStr">
         <is>
           <t>AMTCEXCSB</t>
         </is>
       </c>
-      <c r="IW87" t="inlineStr">
+      <c r="IY87" t="inlineStr">
         <is>
           <t>Measuring, testing and control instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX87" t="n">
+      <c r="IZ87" t="n">
         <v>119</v>
       </c>
     </row>
@@ -69678,19 +70204,25 @@
         <v>3346</v>
       </c>
       <c r="IU88" t="n">
-        <v>3457</v>
-      </c>
-      <c r="IV88" t="inlineStr">
+        <v>3458</v>
+      </c>
+      <c r="IV88" t="n">
+        <v>3581</v>
+      </c>
+      <c r="IW88" t="n">
+        <v>3586</v>
+      </c>
+      <c r="IX88" t="inlineStr">
         <is>
           <t>AMEDEXCSB</t>
         </is>
       </c>
-      <c r="IW88" t="inlineStr">
+      <c r="IY88" t="inlineStr">
         <is>
           <t>Medical equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX88" t="n">
+      <c r="IZ88" t="n">
         <v>120</v>
       </c>
     </row>
@@ -70462,17 +70994,23 @@
       <c r="IU89" t="n">
         <v>549</v>
       </c>
-      <c r="IV89" t="inlineStr">
+      <c r="IV89" t="n">
+        <v>550</v>
+      </c>
+      <c r="IW89" t="n">
+        <v>548</v>
+      </c>
+      <c r="IX89" t="inlineStr">
         <is>
           <t>AMMTEXCSB</t>
         </is>
       </c>
-      <c r="IW89" t="inlineStr">
+      <c r="IY89" t="inlineStr">
         <is>
           <t>Metalworking machine tools,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX89" t="n">
+      <c r="IZ89" t="n">
         <v>121</v>
       </c>
     </row>
@@ -71244,17 +71782,23 @@
       <c r="IU90" t="n">
         <v>263</v>
       </c>
-      <c r="IV90" t="inlineStr">
+      <c r="IV90" t="n">
+        <v>264</v>
+      </c>
+      <c r="IW90" t="n">
+        <v>298</v>
+      </c>
+      <c r="IX90" t="inlineStr">
         <is>
           <t>ANFPEXCSB</t>
         </is>
       </c>
-      <c r="IW90" t="inlineStr">
+      <c r="IY90" t="inlineStr">
         <is>
           <t>Nonfarming tractors and parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX90" t="n">
+      <c r="IZ90" t="n">
         <v>122</v>
       </c>
     </row>
@@ -72024,19 +72568,25 @@
         <v>1614</v>
       </c>
       <c r="IU91" t="n">
-        <v>1575</v>
-      </c>
-      <c r="IV91" t="inlineStr">
+        <v>1574</v>
+      </c>
+      <c r="IV91" t="n">
+        <v>1539</v>
+      </c>
+      <c r="IW91" t="n">
+        <v>1614</v>
+      </c>
+      <c r="IX91" t="inlineStr">
         <is>
           <t>APCAEXCSB</t>
         </is>
       </c>
-      <c r="IW91" t="inlineStr">
+      <c r="IY91" t="inlineStr">
         <is>
           <t>Parts-civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX91" t="n">
+      <c r="IZ91" t="n">
         <v>123</v>
       </c>
     </row>
@@ -72808,17 +73358,23 @@
       <c r="IU92" t="n">
         <v>811</v>
       </c>
-      <c r="IV92" t="inlineStr">
+      <c r="IV92" t="n">
+        <v>866</v>
+      </c>
+      <c r="IW92" t="n">
+        <v>836</v>
+      </c>
+      <c r="IX92" t="inlineStr">
         <is>
           <t>APHSEXCSB</t>
         </is>
       </c>
-      <c r="IW92" t="inlineStr">
+      <c r="IY92" t="inlineStr">
         <is>
           <t>Photo and service industry machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX92" t="n">
+      <c r="IZ92" t="n">
         <v>124</v>
       </c>
     </row>
@@ -73590,17 +74146,23 @@
       <c r="IU93" t="n">
         <v>175</v>
       </c>
-      <c r="IV93" t="inlineStr">
+      <c r="IV93" t="n">
+        <v>181</v>
+      </c>
+      <c r="IW93" t="n">
+        <v>188</v>
+      </c>
+      <c r="IX93" t="inlineStr">
         <is>
           <t>APPMEXCSB</t>
         </is>
       </c>
-      <c r="IW93" t="inlineStr">
+      <c r="IY93" t="inlineStr">
         <is>
           <t>Pulp and paper machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX93" t="n">
+      <c r="IZ93" t="n">
         <v>125</v>
       </c>
     </row>
@@ -74372,17 +74934,23 @@
       <c r="IU94" t="n">
         <v>237</v>
       </c>
-      <c r="IV94" t="inlineStr">
+      <c r="IV94" t="n">
+        <v>284</v>
+      </c>
+      <c r="IW94" t="n">
+        <v>288</v>
+      </c>
+      <c r="IX94" t="inlineStr">
         <is>
           <t>ARTEEXCSB</t>
         </is>
       </c>
-      <c r="IW94" t="inlineStr">
+      <c r="IY94" t="inlineStr">
         <is>
           <t>Railway transportation equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX94" t="n">
+      <c r="IZ94" t="n">
         <v>126</v>
       </c>
     </row>
@@ -75154,17 +75722,23 @@
       <c r="IU95" t="n">
         <v>5493</v>
       </c>
-      <c r="IV95" t="inlineStr">
+      <c r="IV95" t="n">
+        <v>5728</v>
+      </c>
+      <c r="IW95" t="n">
+        <v>5478</v>
+      </c>
+      <c r="IX95" t="inlineStr">
         <is>
           <t>ASCDEXCSB</t>
         </is>
       </c>
-      <c r="IW95" t="inlineStr">
+      <c r="IY95" t="inlineStr">
         <is>
           <t>Semiconductors,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX95" t="n">
+      <c r="IZ95" t="n">
         <v>127</v>
       </c>
     </row>
@@ -75964,17 +76538,23 @@
       <c r="IU96" t="n">
         <v>3</v>
       </c>
-      <c r="IV96" t="inlineStr">
+      <c r="IV96" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW96" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX96" t="inlineStr">
         <is>
           <t>ASPCEXCSB</t>
         </is>
       </c>
-      <c r="IW96" t="inlineStr">
+      <c r="IY96" t="inlineStr">
         <is>
           <t>Spacecraft, excluding military,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX96" t="n">
+      <c r="IZ96" t="n">
         <v>128</v>
       </c>
     </row>
@@ -76746,17 +77326,23 @@
       <c r="IU97" t="n">
         <v>107</v>
       </c>
-      <c r="IV97" t="inlineStr">
+      <c r="IV97" t="n">
+        <v>68</v>
+      </c>
+      <c r="IW97" t="n">
+        <v>63</v>
+      </c>
+      <c r="IX97" t="inlineStr">
         <is>
           <t>ASPMEXCSB</t>
         </is>
       </c>
-      <c r="IW97" t="inlineStr">
+      <c r="IY97" t="inlineStr">
         <is>
           <t>Specialized mining,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX97" t="n">
+      <c r="IZ97" t="n">
         <v>129</v>
       </c>
     </row>
@@ -77526,19 +78112,25 @@
         <v>2741</v>
       </c>
       <c r="IU98" t="n">
-        <v>2830</v>
-      </c>
-      <c r="IV98" t="inlineStr">
+        <v>2831</v>
+      </c>
+      <c r="IV98" t="n">
+        <v>2794</v>
+      </c>
+      <c r="IW98" t="n">
+        <v>2756</v>
+      </c>
+      <c r="IX98" t="inlineStr">
         <is>
           <t>ATELEXCSB</t>
         </is>
       </c>
-      <c r="IW98" t="inlineStr">
+      <c r="IY98" t="inlineStr">
         <is>
           <t>Telecommunications equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX98" t="n">
+      <c r="IZ98" t="n">
         <v>130</v>
       </c>
     </row>
@@ -78310,17 +78902,23 @@
       <c r="IU99" t="n">
         <v>85</v>
       </c>
-      <c r="IV99" t="inlineStr">
+      <c r="IV99" t="n">
+        <v>98</v>
+      </c>
+      <c r="IW99" t="n">
+        <v>93</v>
+      </c>
+      <c r="IX99" t="inlineStr">
         <is>
           <t>ATSMEXCSB</t>
         </is>
       </c>
-      <c r="IW99" t="inlineStr">
+      <c r="IY99" t="inlineStr">
         <is>
           <t>Textile, sewing machines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX99" t="n">
+      <c r="IZ99" t="n">
         <v>131</v>
       </c>
     </row>
@@ -79134,17 +79732,23 @@
       <c r="IU100" t="n">
         <v>1</v>
       </c>
-      <c r="IV100" t="inlineStr">
+      <c r="IV100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW100" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX100" t="inlineStr">
         <is>
           <t>AVESEXCSB</t>
         </is>
       </c>
-      <c r="IW100" t="inlineStr">
+      <c r="IY100" t="inlineStr">
         <is>
           <t>Vessels, excluding scrap,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX100" t="n">
+      <c r="IZ100" t="n">
         <v>132</v>
       </c>
     </row>
@@ -79916,17 +80520,23 @@
       <c r="IU101" t="n">
         <v>290</v>
       </c>
-      <c r="IV101" t="inlineStr">
+      <c r="IV101" t="n">
+        <v>319</v>
+      </c>
+      <c r="IW101" t="n">
+        <v>309</v>
+      </c>
+      <c r="IX101" t="inlineStr">
         <is>
           <t>AWGPEXCSB</t>
         </is>
       </c>
-      <c r="IW101" t="inlineStr">
+      <c r="IY101" t="inlineStr">
         <is>
           <t>Wood, glass and plastic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX101" t="n">
+      <c r="IZ101" t="n">
         <v>133</v>
       </c>
     </row>
@@ -80696,19 +81306,25 @@
         <v>12336</v>
       </c>
       <c r="IU102" t="n">
-        <v>12046</v>
-      </c>
-      <c r="IV102" t="inlineStr">
+        <v>12055</v>
+      </c>
+      <c r="IV102" t="n">
+        <v>12932</v>
+      </c>
+      <c r="IW102" t="n">
+        <v>13024</v>
+      </c>
+      <c r="IX102" t="inlineStr">
         <is>
           <t>AAMVEXCSB</t>
         </is>
       </c>
-      <c r="IW102" t="inlineStr">
+      <c r="IY102" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX102" t="n">
+      <c r="IZ102" t="n">
         <v>134</v>
       </c>
     </row>
@@ -81122,17 +81738,23 @@
       <c r="IU103" t="n">
         <v>259</v>
       </c>
-      <c r="IV103" t="inlineStr">
+      <c r="IV103" t="n">
+        <v>267</v>
+      </c>
+      <c r="IW103" t="n">
+        <v>271</v>
+      </c>
+      <c r="IX103" t="inlineStr">
         <is>
           <t>AATTEXCSB</t>
         </is>
       </c>
-      <c r="IW103" t="inlineStr">
+      <c r="IY103" t="inlineStr">
         <is>
           <t>Automotive tires and tubes,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX103" t="n">
+      <c r="IZ103" t="n">
         <v>135</v>
       </c>
     </row>
@@ -81544,19 +82166,25 @@
         <v>9</v>
       </c>
       <c r="IU104" t="n">
-        <v>11</v>
-      </c>
-      <c r="IV104" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="IV104" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW104" t="n">
+        <v>18</v>
+      </c>
+      <c r="IX104" t="inlineStr">
         <is>
           <t>ABCPEXCSB</t>
         </is>
       </c>
-      <c r="IW104" t="inlineStr">
+      <c r="IY104" t="inlineStr">
         <is>
           <t>Bodies and chassis for passenger cars,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX104" t="n">
+      <c r="IZ104" t="n">
         <v>136</v>
       </c>
     </row>
@@ -81968,19 +82596,25 @@
         <v>1524</v>
       </c>
       <c r="IU105" t="n">
-        <v>1592</v>
-      </c>
-      <c r="IV105" t="inlineStr">
+        <v>1591</v>
+      </c>
+      <c r="IV105" t="n">
+        <v>1629</v>
+      </c>
+      <c r="IW105" t="n">
+        <v>1646</v>
+      </c>
+      <c r="IX105" t="inlineStr">
         <is>
           <t>AENPEXCSB</t>
         </is>
       </c>
-      <c r="IW105" t="inlineStr">
+      <c r="IY105" t="inlineStr">
         <is>
           <t>Engines and engine parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX105" t="n">
+      <c r="IZ105" t="n">
         <v>139</v>
       </c>
     </row>
@@ -82392,19 +83026,25 @@
         <v>4345</v>
       </c>
       <c r="IU106" t="n">
-        <v>4727</v>
-      </c>
-      <c r="IV106" t="inlineStr">
+        <v>4729</v>
+      </c>
+      <c r="IV106" t="n">
+        <v>4887</v>
+      </c>
+      <c r="IW106" t="n">
+        <v>4627</v>
+      </c>
+      <c r="IX106" t="inlineStr">
         <is>
           <t>AOPAEXCSB</t>
         </is>
       </c>
-      <c r="IW106" t="inlineStr">
+      <c r="IY106" t="inlineStr">
         <is>
           <t>Other parts and accessories of vehicles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX106" t="n">
+      <c r="IZ106" t="n">
         <v>140</v>
       </c>
     </row>
@@ -82816,19 +83456,25 @@
         <v>4451</v>
       </c>
       <c r="IU107" t="n">
-        <v>3911</v>
-      </c>
-      <c r="IV107" t="inlineStr">
+        <v>3914</v>
+      </c>
+      <c r="IV107" t="n">
+        <v>4374</v>
+      </c>
+      <c r="IW107" t="n">
+        <v>4636</v>
+      </c>
+      <c r="IX107" t="inlineStr">
         <is>
           <t>APSCEXCSB</t>
         </is>
       </c>
-      <c r="IW107" t="inlineStr">
+      <c r="IY107" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX107" t="n">
+      <c r="IZ107" t="n">
         <v>141</v>
       </c>
     </row>
@@ -83240,19 +83886,25 @@
         <v>1750</v>
       </c>
       <c r="IU108" t="n">
-        <v>1547</v>
-      </c>
-      <c r="IV108" t="inlineStr">
+        <v>1551</v>
+      </c>
+      <c r="IV108" t="n">
+        <v>1762</v>
+      </c>
+      <c r="IW108" t="n">
+        <v>1825</v>
+      </c>
+      <c r="IX108" t="inlineStr">
         <is>
           <t>ATBVEXCSB</t>
         </is>
       </c>
-      <c r="IW108" t="inlineStr">
+      <c r="IY108" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX108" t="n">
+      <c r="IZ108" t="n">
         <v>142</v>
       </c>
     </row>
@@ -84022,19 +84674,25 @@
         <v>18988</v>
       </c>
       <c r="IU109" t="n">
-        <v>20255</v>
-      </c>
-      <c r="IV109" t="inlineStr">
+        <v>20245</v>
+      </c>
+      <c r="IV109" t="n">
+        <v>20314</v>
+      </c>
+      <c r="IW109" t="n">
+        <v>20715</v>
+      </c>
+      <c r="IX109" t="inlineStr">
         <is>
           <t>ACGDEXCSB</t>
         </is>
       </c>
-      <c r="IW109" t="inlineStr">
+      <c r="IY109" t="inlineStr">
         <is>
           <t>Consumer Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX109" t="n">
+      <c r="IZ109" t="n">
         <v>143</v>
       </c>
     </row>
@@ -84806,17 +85464,23 @@
       <c r="IU110" t="n">
         <v>678</v>
       </c>
-      <c r="IV110" t="inlineStr">
+      <c r="IV110" t="n">
+        <v>678</v>
+      </c>
+      <c r="IW110" t="n">
+        <v>684</v>
+      </c>
+      <c r="IX110" t="inlineStr">
         <is>
           <t>ATAHEXCSB</t>
         </is>
       </c>
-      <c r="IW110" t="inlineStr">
+      <c r="IY110" t="inlineStr">
         <is>
           <t>Apparel and household goods - textile,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX110" t="n">
+      <c r="IZ110" t="n">
         <v>145</v>
       </c>
     </row>
@@ -85588,17 +86252,23 @@
       <c r="IU111" t="n">
         <v>249</v>
       </c>
-      <c r="IV111" t="inlineStr">
+      <c r="IV111" t="n">
+        <v>266</v>
+      </c>
+      <c r="IW111" t="n">
+        <v>258</v>
+      </c>
+      <c r="IX111" t="inlineStr">
         <is>
           <t>ANTAEXCSB</t>
         </is>
       </c>
-      <c r="IW111" t="inlineStr">
+      <c r="IY111" t="inlineStr">
         <is>
           <t>Apparel and household goods-nontextile,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX111" t="n">
+      <c r="IZ111" t="n">
         <v>146</v>
       </c>
     </row>
@@ -86370,17 +87040,23 @@
       <c r="IU112" t="n">
         <v>839</v>
       </c>
-      <c r="IV112" t="inlineStr">
+      <c r="IV112" t="n">
+        <v>864</v>
+      </c>
+      <c r="IW112" t="n">
+        <v>1438</v>
+      </c>
+      <c r="IX112" t="inlineStr">
         <is>
           <t>AARTEXCSB</t>
         </is>
       </c>
-      <c r="IW112" t="inlineStr">
+      <c r="IY112" t="inlineStr">
         <is>
           <t>Artwork, antiques, stamps, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX112" t="n">
+      <c r="IZ112" t="n">
         <v>149</v>
       </c>
     </row>
@@ -86906,17 +87582,19 @@
       <c r="IS113" t="inlineStr"/>
       <c r="IT113" t="inlineStr"/>
       <c r="IU113" t="inlineStr"/>
-      <c r="IV113" t="inlineStr">
+      <c r="IV113" t="inlineStr"/>
+      <c r="IW113" t="inlineStr"/>
+      <c r="IX113" t="inlineStr">
         <is>
           <t>AWASEXCSB</t>
         </is>
       </c>
-      <c r="IW113" t="inlineStr">
+      <c r="IY113" t="inlineStr">
         <is>
           <t>Writing and art supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX113" t="n">
+      <c r="IZ113" t="n">
         <v>150</v>
       </c>
     </row>
@@ -87688,17 +88366,23 @@
       <c r="IU114" t="n">
         <v>374</v>
       </c>
-      <c r="IV114" t="inlineStr">
+      <c r="IV114" t="n">
+        <v>375</v>
+      </c>
+      <c r="IW114" t="n">
+        <v>350</v>
+      </c>
+      <c r="IX114" t="inlineStr">
         <is>
           <t>ABPMEXCSB</t>
         </is>
       </c>
-      <c r="IW114" t="inlineStr">
+      <c r="IY114" t="inlineStr">
         <is>
           <t>Books and printed matter,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX114" t="n">
+      <c r="IZ114" t="n">
         <v>151</v>
       </c>
     </row>
@@ -88206,19 +88890,25 @@
         <v>2496</v>
       </c>
       <c r="IU115" t="n">
-        <v>2567</v>
-      </c>
-      <c r="IV115" t="inlineStr">
+        <v>2568</v>
+      </c>
+      <c r="IV115" t="n">
+        <v>2631</v>
+      </c>
+      <c r="IW115" t="n">
+        <v>2646</v>
+      </c>
+      <c r="IX115" t="inlineStr">
         <is>
           <t>ACELEXCSB</t>
         </is>
       </c>
-      <c r="IW115" t="inlineStr">
+      <c r="IY115" t="inlineStr">
         <is>
           <t>Cell phones and other household goods, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX115" t="n">
+      <c r="IZ115" t="n">
         <v>153</v>
       </c>
     </row>
@@ -88990,17 +89680,23 @@
       <c r="IU116" t="n">
         <v>125</v>
       </c>
-      <c r="IV116" t="inlineStr">
+      <c r="IV116" t="n">
+        <v>113</v>
+      </c>
+      <c r="IW116" t="n">
+        <v>131</v>
+      </c>
+      <c r="IX116" t="inlineStr">
         <is>
           <t>ACCTEXCSB</t>
         </is>
       </c>
-      <c r="IW116" t="inlineStr">
+      <c r="IY116" t="inlineStr">
         <is>
           <t>Cookware, cutlery and tools,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX116" t="n">
+      <c r="IZ116" t="n">
         <v>154</v>
       </c>
     </row>
@@ -89772,17 +90468,23 @@
       <c r="IU117" t="n">
         <v>432</v>
       </c>
-      <c r="IV117" t="inlineStr">
+      <c r="IV117" t="n">
+        <v>445</v>
+      </c>
+      <c r="IW117" t="n">
+        <v>492</v>
+      </c>
+      <c r="IX117" t="inlineStr">
         <is>
           <t>AFHGEXCSB</t>
         </is>
       </c>
-      <c r="IW117" t="inlineStr">
+      <c r="IY117" t="inlineStr">
         <is>
           <t>Furniture, household goods, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX117" t="n">
+      <c r="IZ117" t="n">
         <v>156</v>
       </c>
     </row>
@@ -90308,17 +91010,19 @@
       <c r="IS118" t="inlineStr"/>
       <c r="IT118" t="inlineStr"/>
       <c r="IU118" t="inlineStr"/>
-      <c r="IV118" t="inlineStr">
+      <c r="IV118" t="inlineStr"/>
+      <c r="IW118" t="inlineStr"/>
+      <c r="IX118" t="inlineStr">
         <is>
           <t>AOHGEXCSB</t>
         </is>
       </c>
-      <c r="IW118" t="inlineStr">
+      <c r="IY118" t="inlineStr">
         <is>
           <t>Other household goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX118" t="n">
+      <c r="IZ118" t="n">
         <v>157</v>
       </c>
     </row>
@@ -91088,19 +91792,25 @@
         <v>1820</v>
       </c>
       <c r="IU119" t="n">
-        <v>1721</v>
-      </c>
-      <c r="IV119" t="inlineStr">
+        <v>1709</v>
+      </c>
+      <c r="IV119" t="n">
+        <v>1561</v>
+      </c>
+      <c r="IW119" t="n">
+        <v>1869</v>
+      </c>
+      <c r="IX119" t="inlineStr">
         <is>
           <t>AGEMEXCSB</t>
         </is>
       </c>
-      <c r="IW119" t="inlineStr">
+      <c r="IY119" t="inlineStr">
         <is>
           <t>Gem diamonds,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX119" t="n">
+      <c r="IZ119" t="n">
         <v>158</v>
       </c>
     </row>
@@ -91870,19 +92580,25 @@
         <v>43</v>
       </c>
       <c r="IU120" t="n">
-        <v>56</v>
-      </c>
-      <c r="IV120" t="inlineStr">
+        <v>57</v>
+      </c>
+      <c r="IV120" t="n">
+        <v>58</v>
+      </c>
+      <c r="IW120" t="n">
+        <v>43</v>
+      </c>
+      <c r="IX120" t="inlineStr">
         <is>
           <t>AGCWEXCSB</t>
         </is>
       </c>
-      <c r="IW120" t="inlineStr">
+      <c r="IY120" t="inlineStr">
         <is>
           <t>Glassware and chinaware,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX120" t="n">
+      <c r="IZ120" t="n">
         <v>160</v>
       </c>
     </row>
@@ -92654,17 +93370,23 @@
       <c r="IU121" t="n">
         <v>621</v>
       </c>
-      <c r="IV121" t="inlineStr">
+      <c r="IV121" t="n">
+        <v>648</v>
+      </c>
+      <c r="IW121" t="n">
+        <v>669</v>
+      </c>
+      <c r="IX121" t="inlineStr">
         <is>
           <t>AAPPEXCSB</t>
         </is>
       </c>
-      <c r="IW121" t="inlineStr">
+      <c r="IY121" t="inlineStr">
         <is>
           <t>Household appliances,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX121" t="n">
+      <c r="IZ121" t="n">
         <v>161</v>
       </c>
     </row>
@@ -93434,19 +94156,25 @@
         <v>851</v>
       </c>
       <c r="IU122" t="n">
-        <v>619</v>
-      </c>
-      <c r="IV122" t="inlineStr">
+        <v>618</v>
+      </c>
+      <c r="IV122" t="n">
+        <v>818</v>
+      </c>
+      <c r="IW122" t="n">
+        <v>1223</v>
+      </c>
+      <c r="IX122" t="inlineStr">
         <is>
           <t>AJLREXCSB</t>
         </is>
       </c>
-      <c r="IW122" t="inlineStr">
+      <c r="IY122" t="inlineStr">
         <is>
           <t>Jewelry, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX122" t="n">
+      <c r="IZ122" t="n">
         <v>162</v>
       </c>
     </row>
@@ -94218,17 +94946,23 @@
       <c r="IU123" t="n">
         <v>199</v>
       </c>
-      <c r="IV123" t="inlineStr">
+      <c r="IV123" t="n">
+        <v>183</v>
+      </c>
+      <c r="IW123" t="n">
+        <v>189</v>
+      </c>
+      <c r="IX123" t="inlineStr">
         <is>
           <t>AMUSEXCSB</t>
         </is>
       </c>
-      <c r="IW123" t="inlineStr">
+      <c r="IY123" t="inlineStr">
         <is>
           <t>Musical instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX123" t="n">
+      <c r="IZ123" t="n">
         <v>164</v>
       </c>
     </row>
@@ -95000,17 +95734,23 @@
       <c r="IU124" t="n">
         <v>107</v>
       </c>
-      <c r="IV124" t="inlineStr">
+      <c r="IV124" t="n">
+        <v>166</v>
+      </c>
+      <c r="IW124" t="n">
+        <v>113</v>
+      </c>
+      <c r="IX124" t="inlineStr">
         <is>
           <t>ANMCEXCSB</t>
         </is>
       </c>
-      <c r="IW124" t="inlineStr">
+      <c r="IY124" t="inlineStr">
         <is>
           <t>Numismatic coins,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX124" t="n">
+      <c r="IZ124" t="n">
         <v>165</v>
       </c>
     </row>
@@ -95782,17 +96522,23 @@
       <c r="IU125" t="n">
         <v>45</v>
       </c>
-      <c r="IV125" t="inlineStr">
+      <c r="IV125" t="n">
+        <v>49</v>
+      </c>
+      <c r="IW125" t="n">
+        <v>48</v>
+      </c>
+      <c r="IX125" t="inlineStr">
         <is>
           <t>ANUREXCSB</t>
         </is>
       </c>
-      <c r="IW125" t="inlineStr">
+      <c r="IY125" t="inlineStr">
         <is>
           <t>Nursery stock, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX125" t="n">
+      <c r="IZ125" t="n">
         <v>166</v>
       </c>
     </row>
@@ -96302,17 +97048,23 @@
       <c r="IU126" t="n">
         <v>621</v>
       </c>
-      <c r="IV126" t="inlineStr">
+      <c r="IV126" t="n">
+        <v>642</v>
+      </c>
+      <c r="IW126" t="n">
+        <v>643</v>
+      </c>
+      <c r="IX126" t="inlineStr">
         <is>
           <t>AOCNEXCSB</t>
         </is>
       </c>
-      <c r="IW126" t="inlineStr">
+      <c r="IY126" t="inlineStr">
         <is>
           <t>Other consumer nondurables,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX126" t="n">
+      <c r="IZ126" t="n">
         <v>167</v>
       </c>
     </row>
@@ -97084,17 +97836,23 @@
       <c r="IU127" t="n">
         <v>7955</v>
       </c>
-      <c r="IV127" t="inlineStr">
+      <c r="IV127" t="n">
+        <v>7532</v>
+      </c>
+      <c r="IW127" t="n">
+        <v>6663</v>
+      </c>
+      <c r="IX127" t="inlineStr">
         <is>
           <t>APHAEXCSB</t>
         </is>
       </c>
-      <c r="IW127" t="inlineStr">
+      <c r="IY127" t="inlineStr">
         <is>
           <t>Pharmaceutical preparations,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX127" t="n">
+      <c r="IZ127" t="n">
         <v>168</v>
       </c>
     </row>
@@ -97866,17 +98624,23 @@
       <c r="IU128" t="n">
         <v>223</v>
       </c>
-      <c r="IV128" t="inlineStr">
+      <c r="IV128" t="n">
+        <v>236</v>
+      </c>
+      <c r="IW128" t="n">
+        <v>229</v>
+      </c>
+      <c r="IX128" t="inlineStr">
         <is>
           <t>APBMEXCSB</t>
         </is>
       </c>
-      <c r="IW128" t="inlineStr">
+      <c r="IY128" t="inlineStr">
         <is>
           <t>Pleasure boats and motors,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX128" t="n">
+      <c r="IZ128" t="n">
         <v>170</v>
       </c>
     </row>
@@ -98648,17 +99412,23 @@
       <c r="IU129" t="n">
         <v>122</v>
       </c>
-      <c r="IV129" t="inlineStr">
+      <c r="IV129" t="n">
+        <v>134</v>
+      </c>
+      <c r="IW129" t="n">
+        <v>133</v>
+      </c>
+      <c r="IX129" t="inlineStr">
         <is>
           <t>ARCMEXCSB</t>
         </is>
       </c>
-      <c r="IW129" t="inlineStr">
+      <c r="IY129" t="inlineStr">
         <is>
           <t>Recorded media,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX129" t="n">
+      <c r="IZ129" t="n">
         <v>171</v>
       </c>
     </row>
@@ -99430,17 +100200,23 @@
       <c r="IU130" t="n">
         <v>66</v>
       </c>
-      <c r="IV130" t="inlineStr">
+      <c r="IV130" t="n">
+        <v>71</v>
+      </c>
+      <c r="IW130" t="n">
+        <v>67</v>
+      </c>
+      <c r="IX130" t="inlineStr">
         <is>
           <t>ARUGEXCSB</t>
         </is>
       </c>
-      <c r="IW130" t="inlineStr">
+      <c r="IY130" t="inlineStr">
         <is>
           <t>Rugs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX130" t="n">
+      <c r="IZ130" t="n">
         <v>172</v>
       </c>
     </row>
@@ -100212,17 +100988,23 @@
       <c r="IU131" t="n">
         <v>79</v>
       </c>
-      <c r="IV131" t="inlineStr">
+      <c r="IV131" t="n">
+        <v>86</v>
+      </c>
+      <c r="IW131" t="n">
+        <v>89</v>
+      </c>
+      <c r="IX131" t="inlineStr">
         <is>
           <t>ASAGEXCSB</t>
         </is>
       </c>
-      <c r="IW131" t="inlineStr">
+      <c r="IY131" t="inlineStr">
         <is>
           <t>Sports apparel and gear,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX131" t="n">
+      <c r="IZ131" t="n">
         <v>173</v>
       </c>
     </row>
@@ -100994,17 +101776,23 @@
       <c r="IU132" t="n">
         <v>233</v>
       </c>
-      <c r="IV132" t="inlineStr">
+      <c r="IV132" t="n">
+        <v>207</v>
+      </c>
+      <c r="IW132" t="n">
+        <v>211</v>
+      </c>
+      <c r="IX132" t="inlineStr">
         <is>
           <t>ASTEEXCSB</t>
         </is>
       </c>
-      <c r="IW132" t="inlineStr">
+      <c r="IY132" t="inlineStr">
         <is>
           <t>Stereo equipment, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX132" t="n">
+      <c r="IZ132" t="n">
         <v>174</v>
       </c>
     </row>
@@ -101776,17 +102564,23 @@
       <c r="IU133" t="n">
         <v>228</v>
       </c>
-      <c r="IV133" t="inlineStr">
+      <c r="IV133" t="n">
+        <v>251</v>
+      </c>
+      <c r="IW133" t="n">
+        <v>245</v>
+      </c>
+      <c r="IX133" t="inlineStr">
         <is>
           <t>ATVEEXCSB</t>
         </is>
       </c>
-      <c r="IW133" t="inlineStr">
+      <c r="IY133" t="inlineStr">
         <is>
           <t>Televisions and video equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX133" t="n">
+      <c r="IZ133" t="n">
         <v>175</v>
       </c>
     </row>
@@ -102558,17 +103352,23 @@
       <c r="IU134" t="n">
         <v>29</v>
       </c>
-      <c r="IV134" t="inlineStr">
+      <c r="IV134" t="n">
+        <v>32</v>
+      </c>
+      <c r="IW134" t="n">
+        <v>32</v>
+      </c>
+      <c r="IX134" t="inlineStr">
         <is>
           <t>ATBMEXCSB</t>
         </is>
       </c>
-      <c r="IW134" t="inlineStr">
+      <c r="IY134" t="inlineStr">
         <is>
           <t>Tobacco, manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX134" t="n">
+      <c r="IZ134" t="n">
         <v>176</v>
       </c>
     </row>
@@ -103340,17 +104140,23 @@
       <c r="IU135" t="n">
         <v>1107</v>
       </c>
-      <c r="IV135" t="inlineStr">
+      <c r="IV135" t="n">
+        <v>1208</v>
+      </c>
+      <c r="IW135" t="n">
+        <v>1177</v>
+      </c>
+      <c r="IX135" t="inlineStr">
         <is>
           <t>ATCMEXCSB</t>
         </is>
       </c>
-      <c r="IW135" t="inlineStr">
+      <c r="IY135" t="inlineStr">
         <is>
           <t>Toiletries and cosmetics,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX135" t="n">
+      <c r="IZ135" t="n">
         <v>177</v>
       </c>
     </row>
@@ -104120,19 +104926,25 @@
         <v>1005</v>
       </c>
       <c r="IU136" t="n">
-        <v>959</v>
-      </c>
-      <c r="IV136" t="inlineStr">
+        <v>960</v>
+      </c>
+      <c r="IV136" t="n">
+        <v>1060</v>
+      </c>
+      <c r="IW136" t="n">
+        <v>1075</v>
+      </c>
+      <c r="IX136" t="inlineStr">
         <is>
           <t>ATOYEXCSB</t>
         </is>
       </c>
-      <c r="IW136" t="inlineStr">
+      <c r="IY136" t="inlineStr">
         <is>
           <t>Toys, games and sporting goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX136" t="n">
+      <c r="IZ136" t="n">
         <v>178</v>
       </c>
     </row>
@@ -104902,19 +105714,25 @@
         <v>5650</v>
       </c>
       <c r="IU137" t="n">
-        <v>5607</v>
-      </c>
-      <c r="IV137" t="inlineStr">
+        <v>5807</v>
+      </c>
+      <c r="IV137" t="n">
+        <v>6486</v>
+      </c>
+      <c r="IW137" t="n">
+        <v>6266</v>
+      </c>
+      <c r="IX137" t="inlineStr">
         <is>
           <t>AOTGEXCSB</t>
         </is>
       </c>
-      <c r="IW137" t="inlineStr">
+      <c r="IY137" t="inlineStr">
         <is>
           <t>Other Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IX137" t="n">
+      <c r="IZ137" t="n">
         <v>179</v>
       </c>
     </row>
